--- a/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
@@ -1,59 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/2025-10/Laboratorios/Lab 04 - Pilas y colas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{059725CA-9D74-4145-8FC3-28FE5756BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CAB1D75-7132-4A69-A395-BC4C20E1FCBD}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="01-Data Lab 4" sheetId="1" r:id="rId1"/>
-    <sheet name="02-Enqueue" sheetId="8" r:id="rId2"/>
-    <sheet name="03-Dequeue" sheetId="14" r:id="rId3"/>
-    <sheet name="04-Peek" sheetId="16" r:id="rId4"/>
-    <sheet name="05-Push" sheetId="26" r:id="rId5"/>
-    <sheet name="06-Pop" sheetId="21" r:id="rId6"/>
-    <sheet name="07-Top" sheetId="25" r:id="rId7"/>
+    <sheet name="01-Data Lab 4" sheetId="1" state="visible" r:id="rId4"/>
+    <sheet name="02-Enqueue" sheetId="2" state="visible" r:id="rId5"/>
+    <sheet name="03-Dequeue" sheetId="3" state="visible" r:id="rId6"/>
+    <sheet name="04-Peek" sheetId="4" state="visible" r:id="rId7"/>
+    <sheet name="05-Push" sheetId="5" state="visible" r:id="rId8"/>
+    <sheet name="06-Pop" sheetId="6" state="visible" r:id="rId9"/>
+    <sheet name="07-Top" sheetId="7" state="visible" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>TIEMPOS PARA QUEUE [ms]</t>
+    <t xml:space="preserve">TIEMPOS PARA QUEUE [ms]</t>
   </si>
   <si>
-    <t>TIEMPOS PARA STACK [ms]</t>
+    <t xml:space="preserve">TIEMPOS PARA STACK [ms]</t>
   </si>
   <si>
-    <t>Porcentaje de la muestra [pct]</t>
+    <t xml:space="preserve">Porcentaje de la muestra [pct]</t>
   </si>
   <si>
-    <t>Tamaño de la muestra (ARRAY_LIST)</t>
+    <t xml:space="preserve">Tamaño de la muestra (ARRAY_LIST)</t>
   </si>
   <si>
     <t xml:space="preserve">enqueue (Array List) </t>
@@ -65,16 +45,16 @@
     <t xml:space="preserve">peek (Array List) </t>
   </si>
   <si>
-    <t>push (Array List)</t>
+    <t xml:space="preserve">push (Array List)</t>
   </si>
   <si>
-    <t>pop (Array List)</t>
+    <t xml:space="preserve">pop (Array List)</t>
   </si>
   <si>
     <t xml:space="preserve">top(Array List) </t>
   </si>
   <si>
-    <t>Tamaño de la muestra (LINKED_LIST)</t>
+    <t xml:space="preserve">Tamaño de la muestra (LINKED_LIST)</t>
   </si>
   <si>
     <t xml:space="preserve">enqueue (Linked List) </t>
@@ -98,55 +78,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="7">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Dax-Regular"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Dax-Regular"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Dax-Regular"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,526 +134,369 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF69E76"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="16">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="10" formatCode="0.00%"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11.000000"/>
+        <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <sz val="11.000000"/>
+        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFF69E76"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -686,12 +509,12 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -706,7 +529,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -723,15 +546,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Queue</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -743,7 +570,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -774,12 +601,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>enqueue (Array List) </c:v>
+                  <c:v xml:space="preserve">enqueue (Array List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -791,7 +621,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -804,7 +637,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -819,12 +655,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-0.136381"/>
+                  <c:y val="-0.003295"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -836,7 +675,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -860,7 +699,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -896,11 +735,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -911,12 +745,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>enqueue (Linked List) </c:v>
+                  <c:v xml:space="preserve">enqueue (Linked List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -928,7 +765,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -941,7 +781,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -956,12 +799,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="0.095936"/>
+                  <c:y val="0.123767"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -973,7 +819,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -997,7 +843,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1033,19 +879,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -1058,7 +900,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1078,7 +923,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1095,15 +940,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -1115,7 +964,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1135,7 +984,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -1153,7 +1005,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1180,7 +1032,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1200,7 +1055,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1216,11 +1071,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -1232,7 +1092,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1252,7 +1112,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -1270,7 +1133,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1289,7 +1152,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1299,8 +1165,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1312,7 +1182,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1330,16 +1200,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -1368,12 +1238,12 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1388,7 +1258,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1404,11 +1274,16 @@
               <a:rPr lang="en-US" b="1"/>
               <a:t>Comparación de tiempos de ejecucion para Queue</a:t>
             </a:r>
+            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1420,7 +1295,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1451,12 +1326,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dequeue (Array List) </c:v>
+                  <c:v xml:space="preserve">dequeue (Array List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1468,7 +1346,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1481,7 +1362,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -1496,12 +1380,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-0.136381"/>
+                  <c:y val="-0.003295"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -1513,7 +1400,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1537,7 +1424,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1573,11 +1460,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80E6-4C96-B542-B32CC3AB919F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1588,12 +1470,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dequeue (Linked List)  </c:v>
+                  <c:v xml:space="preserve">dequeue (Linked List)  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1605,7 +1490,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1618,7 +1506,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -1633,12 +1524,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="0.095936"/>
+                  <c:y val="0.123767"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -1650,7 +1544,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1674,7 +1568,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -1710,19 +1604,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-80E6-4C96-B542-B32CC3AB919F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -1735,7 +1625,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1755,7 +1648,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1772,15 +1665,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -1792,7 +1689,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1812,7 +1709,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -1830,7 +1730,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1857,7 +1757,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1877,7 +1780,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1893,11 +1796,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -1909,7 +1817,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1929,7 +1837,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -1947,7 +1858,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1966,7 +1877,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1976,8 +1890,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1989,7 +1907,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2007,16 +1925,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -2045,12 +1963,12 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2065,7 +1983,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2081,11 +1999,16 @@
               <a:rPr lang="en-US" b="1"/>
               <a:t>Comparación de tiempos de ejecucion para Queue</a:t>
             </a:r>
+            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -2097,7 +2020,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2128,12 +2051,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>peek (Array List) </c:v>
+                  <c:v xml:space="preserve">peek (Array List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2145,7 +2071,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2158,7 +2087,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -2173,12 +2105,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-0.136381"/>
+                  <c:y val="-0.003295"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -2190,7 +2125,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2214,7 +2149,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2250,11 +2185,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C18-42DB-B9B4-851B2422740E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2265,12 +2195,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>peek (Linked List)  </c:v>
+                  <c:v xml:space="preserve">peek (Linked List)  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2282,7 +2215,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2295,7 +2231,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -2310,12 +2249,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="0.095936"/>
+                  <c:y val="0.123767"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -2327,7 +2269,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2351,7 +2293,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2387,19 +2329,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7C18-42DB-B9B4-851B2422740E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -2412,7 +2350,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2432,7 +2373,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2449,15 +2390,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -2469,7 +2414,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2489,7 +2434,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -2507,7 +2455,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2534,7 +2482,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2554,7 +2505,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2570,11 +2521,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -2586,7 +2542,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2606,7 +2562,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -2624,7 +2583,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2643,7 +2602,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -2653,8 +2615,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -2666,7 +2632,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2684,16 +2650,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -2722,12 +2688,12 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2742,7 +2708,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2759,15 +2725,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Stack</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -2779,7 +2749,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2815,7 +2785,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2827,7 +2800,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2840,7 +2816,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -2855,12 +2834,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-0.136381"/>
+                  <c:y val="-0.003295"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -2872,7 +2854,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2896,7 +2878,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -2932,11 +2914,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-593D-443F-9CD6-04EF414BEDDD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2947,12 +2924,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>push (Linked List) </c:v>
+                  <c:v xml:space="preserve">push (Linked List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2964,7 +2944,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2977,7 +2960,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -2992,12 +2978,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="0.095936"/>
+                  <c:y val="0.123767"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -3009,7 +2998,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -3033,7 +3022,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -3069,19 +3058,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-593D-443F-9CD6-04EF414BEDDD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -3094,7 +3079,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3114,7 +3102,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3131,15 +3119,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3151,7 +3143,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3171,7 +3163,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3189,7 +3184,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3216,7 +3211,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3236,7 +3234,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3252,11 +3250,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3268,7 +3271,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3288,7 +3291,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3306,7 +3312,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3325,7 +3331,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3335,8 +3344,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3348,7 +3361,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3366,16 +3379,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -3404,12 +3417,12 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -3424,7 +3437,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3441,15 +3454,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Stack</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -3461,7 +3478,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3497,7 +3514,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3509,7 +3529,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3522,7 +3545,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -3537,12 +3563,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-0.136381"/>
+                  <c:y val="-0.003295"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -3554,7 +3583,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -3578,7 +3607,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -3614,11 +3643,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A7B4-42D5-AC23-D7E26B1354F7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3629,12 +3653,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pop (Linked List) </c:v>
+                  <c:v xml:space="preserve">pop (Linked List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -3646,7 +3673,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3659,7 +3689,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -3674,12 +3707,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="0.095936"/>
+                  <c:y val="0.123767"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -3691,7 +3727,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -3715,7 +3751,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -3751,19 +3787,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A7B4-42D5-AC23-D7E26B1354F7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -3776,7 +3808,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3796,7 +3831,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3813,15 +3848,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3833,7 +3872,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3853,7 +3892,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3871,7 +3913,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3898,7 +3940,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3918,7 +3963,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3934,11 +3979,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -3950,7 +4000,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3970,7 +4020,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -3988,7 +4041,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4007,7 +4060,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4017,8 +4073,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4030,7 +4090,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4048,16 +4108,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -4086,12 +4146,12 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -4106,7 +4166,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4123,15 +4183,19 @@
               <a:t>Comparación de tiempos de ejecucion para</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> Stack</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4143,7 +4207,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4174,12 +4238,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>top(Array List) </c:v>
+                  <c:v xml:space="preserve">top(Array List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -4191,7 +4258,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4204,7 +4274,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -4219,12 +4292,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1363811854896437"/>
-                  <c:y val="-3.2945200031814204E-3"/>
+                  <c:x val="-0.136381"/>
+                  <c:y val="-0.003295"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -4236,7 +4312,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -4260,7 +4336,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4296,11 +4372,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3722-44F9-B5EB-F480C153262C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4311,12 +4382,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>top(Linked List) </c:v>
+                  <c:v xml:space="preserve">top(Linked List) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4328,7 +4402,10 @@
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4341,7 +4418,10 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:spPr>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -4356,12 +4436,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.593553005287829E-2"/>
-                  <c:y val="0.12376727909011373"/>
+                  <c:x val="0.095936"/>
+                  <c:y val="0.123767"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
+              <c:spPr bwMode="auto">
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -4373,7 +4456,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -4397,7 +4480,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4433,19 +4516,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3722-44F9-B5EB-F480C153262C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="1328118000"/>
         <c:axId val="1328121328"/>
@@ -4458,7 +4537,10 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4478,7 +4560,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4495,15 +4577,19 @@
                   <a:t>Tamaño</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t> de la muestra [Num. elementos]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -4515,7 +4601,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4535,7 +4621,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -4553,7 +4642,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4580,7 +4669,10 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4600,7 +4692,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4616,11 +4708,16 @@
                   <a:rPr lang="en-US" b="1"/>
                   <a:t>Tiempo de Ejecución [ms]</a:t>
                 </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
             <a:noFill/>
             <a:ln>
               <a:noFill/>
@@ -4632,7 +4729,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4652,7 +4749,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
@@ -4670,7 +4770,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4689,7 +4789,10 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4699,8 +4802,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -4712,7 +4819,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4730,16 +4837,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -5019,7 +5126,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5031,7 +5138,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5042,16 +5152,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -5065,7 +5178,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5077,7 +5190,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5089,7 +5202,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -5102,7 +5218,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -5136,7 +5252,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5156,7 +5275,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5164,7 +5286,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5174,7 +5295,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5193,7 +5317,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5205,7 +5332,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -5214,7 +5341,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -5239,7 +5369,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5258,7 +5391,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5277,7 +5413,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -5291,7 +5430,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5310,7 +5452,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5329,7 +5474,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5348,7 +5496,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5370,9 +5521,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5380,7 +5531,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5398,7 +5549,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -5407,7 +5558,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5429,7 +5583,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5440,7 +5594,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5459,7 +5616,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -5468,7 +5625,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -5493,7 +5653,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5504,7 +5667,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -5513,13 +5676,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -5535,7 +5702,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5547,7 +5714,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5558,16 +5728,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -5581,7 +5754,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5593,7 +5766,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5605,7 +5778,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -5618,7 +5794,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -5652,7 +5828,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5672,7 +5851,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5680,7 +5862,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5690,7 +5871,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5709,7 +5893,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5721,7 +5908,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -5730,7 +5917,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -5755,7 +5945,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5774,7 +5967,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5793,7 +5989,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -5807,7 +6006,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5826,7 +6028,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5845,7 +6050,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5864,7 +6072,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5886,9 +6097,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5896,7 +6107,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5914,7 +6125,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -5923,7 +6134,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -5945,7 +6159,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5956,7 +6170,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5975,7 +6192,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -5984,7 +6201,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -6009,7 +6229,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6020,7 +6243,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6029,13 +6252,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -6051,7 +6278,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6063,7 +6290,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6074,16 +6304,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -6097,7 +6330,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6109,7 +6342,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6121,7 +6354,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -6134,7 +6370,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -6168,7 +6404,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6188,7 +6427,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6196,7 +6438,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6206,7 +6447,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6225,7 +6469,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6237,7 +6484,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6246,7 +6493,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -6271,7 +6521,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6290,7 +6543,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6309,7 +6565,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -6323,7 +6582,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6342,7 +6604,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6361,7 +6626,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6380,7 +6648,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6402,9 +6673,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6412,7 +6683,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6430,7 +6701,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6439,7 +6710,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6461,7 +6735,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6472,7 +6746,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6491,7 +6768,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6500,7 +6777,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -6525,7 +6805,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6536,7 +6819,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6545,13 +6828,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -6567,7 +6854,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6579,7 +6866,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6590,16 +6880,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -6613,7 +6906,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6625,7 +6918,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6637,7 +6930,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -6650,7 +6946,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -6684,7 +6980,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6704,7 +7003,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6712,7 +7014,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6722,7 +7023,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6741,7 +7045,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -6753,7 +7060,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6762,7 +7069,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -6787,7 +7097,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6806,7 +7119,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6825,7 +7141,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -6839,7 +7158,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6858,7 +7180,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6877,7 +7202,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6896,7 +7224,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6918,9 +7249,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6928,7 +7259,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6946,7 +7277,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6955,7 +7286,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6977,7 +7311,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6988,7 +7322,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7007,7 +7344,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -7016,7 +7353,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7041,7 +7381,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7052,7 +7395,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -7061,13 +7404,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -7083,7 +7430,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7095,7 +7442,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7106,16 +7456,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -7129,7 +7482,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7141,7 +7494,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7153,7 +7506,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7166,7 +7522,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -7200,7 +7556,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7220,7 +7579,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7228,7 +7590,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7238,7 +7599,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7257,7 +7621,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7269,7 +7636,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -7278,7 +7645,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -7303,7 +7673,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7322,7 +7695,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7341,7 +7717,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -7355,7 +7734,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7374,7 +7756,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7393,7 +7778,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7412,7 +7800,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7434,9 +7825,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7444,7 +7835,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7462,7 +7853,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -7471,7 +7862,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7493,7 +7887,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7504,7 +7898,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7523,7 +7920,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -7532,7 +7929,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7557,7 +7957,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7568,7 +7971,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -7577,13 +7980,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -7599,7 +8006,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7611,7 +8018,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7622,16 +8032,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="bg1"/>
       </a:solidFill>
@@ -7645,7 +8058,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7657,7 +8070,7 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7669,7 +8082,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -7682,7 +8098,7 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -7716,7 +8132,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7736,7 +8155,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7744,7 +8166,6 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7754,7 +8175,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7773,7 +8197,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7785,7 +8212,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -7794,7 +8221,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="75000"/>
@@ -7819,7 +8249,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7838,7 +8271,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7857,7 +8293,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
@@ -7871,7 +8310,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7890,7 +8332,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7909,7 +8354,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7928,7 +8376,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -7950,9 +8401,9 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7960,7 +8411,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7978,7 +8429,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -7987,7 +8438,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8009,7 +8463,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8020,7 +8474,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8039,7 +8496,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -8048,7 +8505,10 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
@@ -8073,7 +8533,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -8084,7 +8547,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -8093,110 +8556,30 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
       <a:noFill/>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
   </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EF2FF808-7ED0-47FB-B864-504F6F16AA8A}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1F6F8E6F-6F0F-4920-8230-CBB34D53C742}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1BECD7C-0E68-4F70-B3B6-C22C36A0C26A}">
-  <sheetPr>
-    <tabColor rgb="FFF69E76"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D2575C93-C280-48A9-B18D-2C297D43A605}">
-  <sheetPr>
-    <tabColor rgb="FFF69E76"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{140E80F7-6EA9-429E-B27A-295C9BBA9433}">
-  <sheetPr>
-    <tabColor rgb="FFF69E76"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9305925" cy="6076950"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8215,21 +8598,15 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9305925" cy="6076950"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975A87D5-B644-4CF1-AC85-39B826EC2C02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8248,21 +8625,15 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9305925" cy="6076950"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CA525E-3430-4CEF-23E8-ECD9066C6569}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8281,21 +8652,15 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9305925" cy="6076950"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B0B28A-DE5E-E347-1DCC-EBC3E818A846}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8314,21 +8679,15 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9305925" cy="6076950"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F11EF7-88B5-6F32-87A6-E5E2CC082D4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8347,21 +8706,15 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9305925" cy="6076950"/>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BB05CC-C680-88B2-FEFE-B0E289E2EAF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8380,63 +8733,342 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A2:H10" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A2:H10" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="A2:H10">
+  <autoFilter ref="A2:H10">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="16">
-      <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="enqueue (Array List) " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="dequeue (Array List) " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="peek (Array List) " dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{092BA754-1EE8-42B8-A0C9-8E5FBAFE3FD2}" name="push (Array List)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{F7FD567A-4A42-4CDC-9449-A0BA8E9714D3}" name="pop (Array List)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{91D17C3E-2CFC-4978-91FF-19ADDF3A1CD9}" name="top(Array List) " dataDxfId="3"/>
+    <tableColumn id="1" name="Porcentaje de la muestra [pct]" dataDxfId="0"/>
+    <tableColumn id="2" name="Tamaño de la muestra (ARRAY_LIST)" dataDxfId="1"/>
+    <tableColumn id="3" name="enqueue (Array List) " dataDxfId="2"/>
+    <tableColumn id="4" name="dequeue (Array List) " dataDxfId="3"/>
+    <tableColumn id="5" name="peek (Array List) " dataDxfId="4"/>
+    <tableColumn id="6" name="push (Array List)" dataDxfId="5"/>
+    <tableColumn id="7" name="pop (Array List)" dataDxfId="6"/>
+    <tableColumn id="8" name="top(Array List) " dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A13:H21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A13:H21" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="Table13" ref="A13:H21">
+  <autoFilter ref="A13:H21">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
-      <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="enqueue (Linked List) " dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="dequeue (Linked List)  " dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="peek (Linked List)  " dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{D4319BDE-1663-4E02-A459-D4E464B40376}" name="push (Linked List) " dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D1102AA4-3669-4976-AB80-8CA1D8EED93A}" name="pop (Linked List) " dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{A75BD949-6BC0-4683-B105-18DE72DE82D5}" name="top(Linked List) " dataDxfId="0"/>
+    <tableColumn id="1" name="Porcentaje de la muestra [pct]" dataDxfId="8"/>
+    <tableColumn id="2" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="9"/>
+    <tableColumn id="3" name="enqueue (Linked List) " dataDxfId="10"/>
+    <tableColumn id="4" name="dequeue (Linked List)  " dataDxfId="11"/>
+    <tableColumn id="5" name="peek (Linked List)  " dataDxfId="12"/>
+    <tableColumn id="6" name="push (Linked List) " dataDxfId="13"/>
+    <tableColumn id="7" name="pop (Linked List) " dataDxfId="14"/>
+    <tableColumn id="8" name="top(Linked List) " dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -8478,108 +9110,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 2013 - 2022">
@@ -8587,7 +9125,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -8613,7 +9151,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -8690,7 +9228,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -8721,347 +9259,532 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="C9" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
-    <col min="6" max="12" width="24.42578125" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="19.140625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="25.5703125"/>
+    <col customWidth="1" min="3" max="4" style="1" width="24.42578125"/>
+    <col customWidth="1" min="5" max="5" style="2" width="24.42578125"/>
+    <col customWidth="1" min="6" max="12" width="24.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="C1" s="7" t="s">
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="30">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" ht="28.5">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
-      <c r="A3" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" s="5" customFormat="1">
+      <c r="A3" s="7">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="B3" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="9">
+        <v>0.025999999999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.028000000000000001</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.0030000000000000001</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.017000000000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1">
-      <c r="A4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" s="5" customFormat="1">
+      <c r="A4" s="7">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B4" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="9">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.222</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5">
+      <c r="A5" s="7">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="B5" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="C5" s="9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.47999999999999998</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6">
+      <c r="A6" s="7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="B6" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="9">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7">
+      <c r="A7" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="B7" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="C7" s="9">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="7">
         <v>0.5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="9">
+        <v>1.391</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.069</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="9">
+      <c r="A9" s="7">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="B9" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="9">
+        <v>2.089</v>
+      </c>
+      <c r="D9" s="9">
+        <v>6.6870000000000003</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F9" s="9">
+        <v>10.007</v>
+      </c>
+      <c r="G9" s="9">
+        <v>6.8010000000000002</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="9">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="D10" s="9">
+        <v>11.776</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F10" s="9">
+        <v>11.458</v>
+      </c>
+      <c r="G10" s="9">
+        <v>14.505000000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.002</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="C12" s="7" t="s">
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="30">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="5" customFormat="1" ht="28.5">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1">
-      <c r="A14" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14" s="5" customFormat="1">
+      <c r="A14" s="7">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="B14" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="9">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.021000000000000001</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.028000000000000001</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1">
-      <c r="A15" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" s="5" customFormat="1">
+      <c r="A15" s="7">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B15" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="C15" s="9">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.193</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="16">
+      <c r="A16" s="7">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="B16" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C16" s="9">
+        <v>0.503</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="17">
+      <c r="A17" s="7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="B17" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="9">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.119</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.052</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="18">
+      <c r="A18" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="B18" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="C18" s="9">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.347</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.802</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="7">
         <v>0.5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="C19" s="9">
+        <v>2.496</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.001</v>
+      </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="20">
+      <c r="A20" s="7">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="B20" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="C20" s="9">
+        <v>4.5309999999999997</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4.8920000000000003</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.0040000000000000001</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4.694</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5.7069999999999999</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.0040000000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="7">
         <v>1</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="C21" s="9">
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6.782</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.002</v>
+      </c>
+      <c r="F21" s="9">
+        <v>6.1040000000000001</v>
+      </c>
+      <c r="G21" s="9">
+        <v>6.016</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.0030000000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9070,8 +9793,10 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:H12"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -9079,120 +9804,139 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFF69E76"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFF69E76"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFF69E76"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -9441,6 +10185,119 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9451,23 +10308,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9486,6 +10326,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>

--- a/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4.xlsx
@@ -117,7 +117,6 @@
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Dax-Regular"/>
     </font>
     <font>
@@ -249,7 +248,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -263,7 +261,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -277,7 +274,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -295,7 +291,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -315,7 +310,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -335,7 +329,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -397,7 +390,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -411,7 +403,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -425,7 +416,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -443,7 +433,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -463,7 +452,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -483,7 +471,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11.000000"/>
-        <color indexed="64"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -547,7 +534,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> Queue</a:t>
+              <a:t> Enqueue</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -1272,7 +1259,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion para Queue</a:t>
+              <a:t>Comparación de tiempos de ejecucion para Dequeue</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -1997,7 +1984,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecucion para Queue</a:t>
+              <a:t>Comparación de tiempos de ejecucion para Peek</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -2726,7 +2713,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> Stack</a:t>
+              <a:t> Push</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3455,7 +3442,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> Stack</a:t>
+              <a:t> Pop</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -4184,7 +4171,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t> Stack</a:t>
+              <a:t> Top</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
